--- a/ch2/resource/range.xlsx
+++ b/ch2/resource/range.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -498,10 +498,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C7" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -509,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -520,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -531,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -542,10 +542,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C11" t="n">
-        <v>96</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12">
+        <f>average(B2:B11)</f>
+        <v/>
+      </c>
+      <c r="C12">
+        <f>average(C2:C11)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
